--- a/PROTOCOLO COMUNICACIÓN.xlsx
+++ b/PROTOCOLO COMUNICACIÓN.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="81">
   <si>
     <t xml:space="preserve">SERIAL</t>
   </si>
@@ -248,6 +248,21 @@
   </si>
   <si>
     <t xml:space="preserve">MATLAB -(Serial)→ Arduino -(I2C)→ Encoderino -(I2C)→ Arduino  -(Serial)→ MATLAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultar si esta en un home el motor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La respuesta es si o no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M1 D2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M1 D2 1</t>
   </si>
 </sst>
 </file>
@@ -462,21 +477,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="47.3724489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="52.780612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.4795918367347"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="95.1683673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.8418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="52.1071428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.9387755102041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="94.0867346938775"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -789,6 +802,23 @@
       </c>
       <c r="F26" s="0" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
